--- a/Marksheet Nov Sessional 2025.xlsx
+++ b/Marksheet Nov Sessional 2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOD IT\Downloads\marksheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6CB0032-394C-4612-809B-63F8019939A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C72A797-5777-4F8B-8BCB-408F1A308517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MGKVP 1" sheetId="1" r:id="rId1"/>
@@ -4489,7 +4489,7 @@
     <t>Data Mining</t>
   </si>
   <si>
-    <t>15 .NET</t>
+    <t>.NET</t>
   </si>
 </sst>
 </file>
@@ -5004,7 +5004,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView topLeftCell="D61" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I1" sqref="I1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -34900,8 +34900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H999"/>
   <sheetViews>
-    <sheetView topLeftCell="B81" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -38421,7 +38421,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E83" sqref="E83"/>
     </sheetView>
   </sheetViews>
@@ -59530,7 +59530,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>

--- a/Marksheet Nov Sessional 2025.xlsx
+++ b/Marksheet Nov Sessional 2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOD IT\Downloads\marksheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C72A797-5777-4F8B-8BCB-408F1A308517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC81411-B188-451D-9C60-19DE36E000D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34916,7 +34916,7 @@
     <col min="8" max="8" width="27" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="55.5" customHeight="1">
       <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
